--- a/CHEMdiv_rescreen_DJK.xlsx
+++ b/CHEMdiv_rescreen_DJK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dankelpsch/Carnegie/People/Lishann Ingram/Final_folder/ChemDIV Secondary Screen-MummLabRobots /20220401_wk2_114plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dankelpsch/Carnegie/Data/Screen/ChemDiv Library/Hit_rescreen/LMI_hit_rescreen/20220401_wk2_114plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE73D27-CECA-D642-9986-F2D61A1253B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F6C958-D2D3-1842-B08D-434156F96851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="4720" windowWidth="23700" windowHeight="15720" xr2:uid="{848C83AE-DA71-A34C-B981-CBE322373055}"/>
   </bookViews>
@@ -652,10 +652,10 @@
     <t>Fish_addition_notes</t>
   </si>
   <si>
-    <t>Chem_ID</t>
-  </si>
-  <si>
     <t>ChemDiv_rescreen_plate</t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254AE12-9178-8D49-8C10-79C5592488B1}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B35" sqref="B3:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1096,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>201</v>
@@ -1111,7 +1111,7 @@
         <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/CHEMdiv_rescreen_DJK.xlsx
+++ b/CHEMdiv_rescreen_DJK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dankelpsch/Carnegie/Data/Screen/ChemDiv Library/Hit_rescreen/LMI_hit_rescreen/20220401_wk2_114plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F6C958-D2D3-1842-B08D-434156F96851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782BF6AF-AEDB-D444-9297-B5CFE344878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="4720" windowWidth="23700" windowHeight="15720" xr2:uid="{848C83AE-DA71-A34C-B981-CBE322373055}"/>
   </bookViews>
@@ -35,146 +35,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="206">
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t xml:space="preserve">J081-0886 </t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t xml:space="preserve">J081-0957 </t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t xml:space="preserve">J081-0958 </t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t xml:space="preserve">J081-0960 </t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
-    <t xml:space="preserve">P657-0788 </t>
-  </si>
-  <si>
     <t>A7</t>
   </si>
   <si>
-    <t xml:space="preserve">CM4193-3989 </t>
-  </si>
-  <si>
     <t>A8</t>
   </si>
   <si>
-    <t xml:space="preserve">S798-0259 </t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
-    <t xml:space="preserve">L228-0941 </t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
-    <t xml:space="preserve">S331-0039 </t>
-  </si>
-  <si>
     <t>A11</t>
   </si>
   <si>
-    <t xml:space="preserve">Y042-3126 </t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t xml:space="preserve">0133-0036 </t>
-  </si>
-  <si>
     <t>B3</t>
   </si>
   <si>
-    <t xml:space="preserve">4607-0285 </t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
-    <t xml:space="preserve">4300-0243 </t>
-  </si>
-  <si>
     <t>B5</t>
   </si>
   <si>
-    <t xml:space="preserve">4311-2656 </t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
-    <t xml:space="preserve">8013-6401 </t>
-  </si>
-  <si>
     <t>B7</t>
   </si>
   <si>
-    <t xml:space="preserve">J006-0831 </t>
-  </si>
-  <si>
     <t>B8</t>
   </si>
   <si>
-    <t xml:space="preserve">K784-6212 </t>
-  </si>
-  <si>
     <t>B9</t>
   </si>
   <si>
-    <t xml:space="preserve">4327-0501 </t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
-    <t xml:space="preserve">R052-1970 </t>
-  </si>
-  <si>
     <t>B11</t>
   </si>
   <si>
-    <t xml:space="preserve">S591-0002 </t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t xml:space="preserve">8020-2460 </t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t xml:space="preserve">V002-2111 </t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t xml:space="preserve">T159-0005 </t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -352,294 +283,156 @@
     <t>Drug was diluted in the next day</t>
   </si>
   <si>
-    <t xml:space="preserve">Y020-2740 </t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
-    <t xml:space="preserve">P970-0634 </t>
-  </si>
-  <si>
     <t>D8</t>
   </si>
   <si>
-    <t xml:space="preserve">6197-5099 </t>
-  </si>
-  <si>
     <t>D9</t>
   </si>
   <si>
-    <t xml:space="preserve">J006-2863 </t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
-    <t xml:space="preserve">4327-0582 </t>
-  </si>
-  <si>
     <t>D11</t>
   </si>
   <si>
-    <t xml:space="preserve">FF51-1059 </t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
-    <t xml:space="preserve">S672-0566 </t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
-    <t xml:space="preserve">4327-0918 </t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
-    <t xml:space="preserve">D490-0468 </t>
-  </si>
-  <si>
     <t>E5</t>
   </si>
   <si>
-    <t xml:space="preserve">P621-1408 </t>
-  </si>
-  <si>
     <t>E6</t>
   </si>
   <si>
-    <t xml:space="preserve">S512-0484 </t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
-    <t xml:space="preserve">8255-1234 </t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
-    <t xml:space="preserve">S795-0078 </t>
-  </si>
-  <si>
     <t>E9</t>
   </si>
   <si>
-    <t xml:space="preserve">V016-7709 </t>
-  </si>
-  <si>
     <t>E10</t>
   </si>
   <si>
     <t xml:space="preserve">both 8 &amp; 4 uM doses killed fish </t>
   </si>
   <si>
-    <t xml:space="preserve">S700-1359 </t>
-  </si>
-  <si>
     <t>E11</t>
   </si>
   <si>
-    <t xml:space="preserve">V029-6117 </t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
-    <t xml:space="preserve">S425-0971 </t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
-    <t xml:space="preserve">S050-0252 </t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
-    <t xml:space="preserve">D665-0179 </t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
-    <t xml:space="preserve">8012-9997 </t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
-    <t xml:space="preserve">J007-1041 </t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
-    <t xml:space="preserve">C790-0046 </t>
-  </si>
-  <si>
     <t>F8</t>
   </si>
   <si>
     <t>Wells got flood: G8, 9, 10, H10</t>
   </si>
   <si>
-    <t xml:space="preserve">4244-3640 </t>
-  </si>
-  <si>
     <t>F9</t>
   </si>
   <si>
-    <t xml:space="preserve">S687-0010 </t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
     <t>flood serverly, lost this plate</t>
   </si>
   <si>
-    <t xml:space="preserve">S324-0201 </t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
-    <t xml:space="preserve">V010-0079 </t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
     <t>Wells got flood: E2, D3, E4, F5, D6, D7, D9, D10, E8, D11, F11</t>
   </si>
   <si>
-    <t xml:space="preserve">Y042-3065 </t>
-  </si>
-  <si>
     <t>G3</t>
   </si>
   <si>
-    <t xml:space="preserve">V022-1515 </t>
-  </si>
-  <si>
     <t>G4</t>
   </si>
   <si>
-    <t xml:space="preserve">3817-0028 </t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
     <t>reuse fish</t>
   </si>
   <si>
-    <t xml:space="preserve">S069-3970 </t>
-  </si>
-  <si>
     <t>G6</t>
   </si>
   <si>
-    <t xml:space="preserve">4244-3644 </t>
-  </si>
-  <si>
     <t>G7</t>
   </si>
   <si>
-    <t xml:space="preserve">R052-0386 </t>
-  </si>
-  <si>
     <t>G8</t>
   </si>
   <si>
-    <t xml:space="preserve">P315-0821 </t>
-  </si>
-  <si>
     <t>G9</t>
   </si>
   <si>
-    <t xml:space="preserve">D361-0251 </t>
-  </si>
-  <si>
     <t>G10</t>
   </si>
   <si>
-    <t xml:space="preserve">P315-0850 </t>
-  </si>
-  <si>
     <t>G11</t>
   </si>
   <si>
-    <t xml:space="preserve">R052-0651 </t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
-    <t xml:space="preserve">6321-0294 </t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
-    <t xml:space="preserve">P657-0743 </t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
-    <t xml:space="preserve">Y041-9809 </t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
-    <t xml:space="preserve">T610-0269 </t>
-  </si>
-  <si>
     <t>H6</t>
   </si>
   <si>
-    <t xml:space="preserve">V030-6834 </t>
-  </si>
-  <si>
     <t>H7</t>
   </si>
   <si>
-    <t xml:space="preserve">3886-0820 </t>
-  </si>
-  <si>
     <t>H8</t>
   </si>
   <si>
-    <t xml:space="preserve">Y021-0991 </t>
-  </si>
-  <si>
     <t>H9</t>
   </si>
   <si>
-    <t xml:space="preserve">6153-0036 </t>
-  </si>
-  <si>
     <t>H10</t>
   </si>
   <si>
-    <t xml:space="preserve">4299-1972 </t>
-  </si>
-  <si>
     <t>H11</t>
   </si>
   <si>
-    <t xml:space="preserve">Y040-6104 </t>
-  </si>
-  <si>
     <t>Source_plate</t>
   </si>
   <si>
@@ -655,7 +448,211 @@
     <t>ChemDiv_rescreen_plate</t>
   </si>
   <si>
-    <t>Treatment</t>
+    <t>Drug_name</t>
+  </si>
+  <si>
+    <t>J081-0886</t>
+  </si>
+  <si>
+    <t>J081-0957</t>
+  </si>
+  <si>
+    <t>J081-0958</t>
+  </si>
+  <si>
+    <t>J081-0960</t>
+  </si>
+  <si>
+    <t>P657-0788</t>
+  </si>
+  <si>
+    <t>CM4193-3989</t>
+  </si>
+  <si>
+    <t>S798-0259</t>
+  </si>
+  <si>
+    <t>L228-0941</t>
+  </si>
+  <si>
+    <t>S331-0039</t>
+  </si>
+  <si>
+    <t>Y042-3126</t>
+  </si>
+  <si>
+    <t>0133-0036</t>
+  </si>
+  <si>
+    <t>4607-0285</t>
+  </si>
+  <si>
+    <t>4300-0243</t>
+  </si>
+  <si>
+    <t>4311-2656</t>
+  </si>
+  <si>
+    <t>8013-6401</t>
+  </si>
+  <si>
+    <t>J006-0831</t>
+  </si>
+  <si>
+    <t>K784-6212</t>
+  </si>
+  <si>
+    <t>4327-0501</t>
+  </si>
+  <si>
+    <t>R052-1970</t>
+  </si>
+  <si>
+    <t>S591-0002</t>
+  </si>
+  <si>
+    <t>8020-2460</t>
+  </si>
+  <si>
+    <t>V002-2111</t>
+  </si>
+  <si>
+    <t>T159-0005</t>
+  </si>
+  <si>
+    <t>Y020-2740</t>
+  </si>
+  <si>
+    <t>P970-0634</t>
+  </si>
+  <si>
+    <t>6197-5099</t>
+  </si>
+  <si>
+    <t>J006-2863</t>
+  </si>
+  <si>
+    <t>4327-0582</t>
+  </si>
+  <si>
+    <t>FF51-1059</t>
+  </si>
+  <si>
+    <t>S672-0566</t>
+  </si>
+  <si>
+    <t>4327-0918</t>
+  </si>
+  <si>
+    <t>D490-0468</t>
+  </si>
+  <si>
+    <t>P621-1408</t>
+  </si>
+  <si>
+    <t>S512-0484</t>
+  </si>
+  <si>
+    <t>8255-1234</t>
+  </si>
+  <si>
+    <t>S795-0078</t>
+  </si>
+  <si>
+    <t>V016-7709</t>
+  </si>
+  <si>
+    <t>S700-1359</t>
+  </si>
+  <si>
+    <t>V029-6117</t>
+  </si>
+  <si>
+    <t>S425-0971</t>
+  </si>
+  <si>
+    <t>S050-0252</t>
+  </si>
+  <si>
+    <t>D665-0179</t>
+  </si>
+  <si>
+    <t>8012-9997</t>
+  </si>
+  <si>
+    <t>J007-1041</t>
+  </si>
+  <si>
+    <t>C790-0046</t>
+  </si>
+  <si>
+    <t>4244-3640</t>
+  </si>
+  <si>
+    <t>S687-0010</t>
+  </si>
+  <si>
+    <t>S324-0201</t>
+  </si>
+  <si>
+    <t>V010-0079</t>
+  </si>
+  <si>
+    <t>Y042-3065</t>
+  </si>
+  <si>
+    <t>V022-1515</t>
+  </si>
+  <si>
+    <t>3817-0028</t>
+  </si>
+  <si>
+    <t>S069-3970</t>
+  </si>
+  <si>
+    <t>R052-0386</t>
+  </si>
+  <si>
+    <t>P315-0821</t>
+  </si>
+  <si>
+    <t>D361-0251</t>
+  </si>
+  <si>
+    <t>P315-0850</t>
+  </si>
+  <si>
+    <t>R052-0651</t>
+  </si>
+  <si>
+    <t>6321-0294</t>
+  </si>
+  <si>
+    <t>P657-0743</t>
+  </si>
+  <si>
+    <t>Y041-9809</t>
+  </si>
+  <si>
+    <t>T610-0269</t>
+  </si>
+  <si>
+    <t>V030-6834</t>
+  </si>
+  <si>
+    <t>3886-0820</t>
+  </si>
+  <si>
+    <t>Y021-0991</t>
+  </si>
+  <si>
+    <t>6153-0036</t>
+  </si>
+  <si>
+    <t>4299-1972</t>
+  </si>
+  <si>
+    <t>Y040-6104</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1078,7 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,22 +1093,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,7 +1124,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1138,12 +1135,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1154,12 +1151,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,12 +1167,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1186,12 +1183,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1202,12 +1199,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1218,12 +1215,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1234,12 +1231,12 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1250,12 +1247,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1266,12 +1263,12 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,12 +1279,12 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1298,12 +1295,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1314,12 +1311,12 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1330,12 +1327,12 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1346,12 +1343,12 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1362,12 +1359,12 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1378,12 +1375,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1394,12 +1391,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,12 +1407,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1426,12 +1423,12 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,12 +1439,12 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,12 +1455,12 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1474,12 +1471,12 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1490,12 +1487,12 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1506,12 +1503,12 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1522,12 +1519,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1538,12 +1535,12 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1554,12 +1551,12 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1570,12 +1567,12 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1586,12 +1583,12 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1602,12 +1599,12 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1618,12 +1615,12 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1634,12 +1631,12 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1650,12 +1647,12 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1671,7 +1668,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
       <c r="F36" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1682,12 +1679,12 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1698,12 +1695,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,12 +1711,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,12 +1727,12 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1746,12 +1743,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1762,12 +1759,12 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1778,12 +1775,12 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
       <c r="F43" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,12 +1791,12 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1810,12 +1807,12 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1826,12 +1823,12 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1842,12 +1839,12 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1858,12 +1855,12 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1874,12 +1871,12 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
       <c r="F49" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1890,12 +1887,12 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1906,12 +1903,12 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1922,12 +1919,12 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1938,12 +1935,12 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1954,12 +1951,12 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1970,14 +1967,14 @@
         <v>1</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1988,12 +1985,12 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2004,12 +2001,12 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2020,12 +2017,12 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2036,12 +2033,12 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2052,12 +2049,12 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
       <c r="F60" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2068,12 +2065,12 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2084,12 +2081,12 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
       <c r="F62" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2100,12 +2097,12 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
       <c r="F63" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2116,12 +2113,12 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
       <c r="F64" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2132,12 +2129,12 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
       <c r="F65" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2148,12 +2145,12 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2164,12 +2161,12 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
       <c r="F67" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2180,12 +2177,12 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
       <c r="F68" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2196,12 +2193,12 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2212,14 +2209,14 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="1" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2230,14 +2227,14 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="1" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2248,14 +2245,14 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="1" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2266,14 +2263,14 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="1" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2284,14 +2281,14 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="1" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2302,14 +2299,14 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="1" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2320,14 +2317,14 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="9" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2338,14 +2335,14 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="1" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2356,14 +2353,14 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="1" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2374,14 +2371,14 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="1" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2392,14 +2389,14 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2410,14 +2407,14 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="1" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2428,14 +2425,14 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2446,14 +2443,14 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="1" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2464,16 +2461,16 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2484,14 +2481,14 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2502,14 +2499,14 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="1" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2520,14 +2517,14 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2538,14 +2535,14 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="1" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2556,14 +2553,14 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="1" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2574,14 +2571,14 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="1" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2592,14 +2589,14 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="1" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2610,16 +2607,16 @@
         <v>1</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2630,14 +2627,14 @@
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2648,16 +2645,16 @@
         <v>1</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2668,14 +2665,14 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -2686,16 +2683,16 @@
         <v>1</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2706,14 +2703,14 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2724,14 +2721,14 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2742,16 +2739,16 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2762,16 +2759,16 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2782,16 +2779,16 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2802,16 +2799,16 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2822,16 +2819,16 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2842,16 +2839,16 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2862,16 +2859,16 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2882,16 +2879,16 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2902,16 +2899,16 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2922,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2942,16 +2939,16 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2962,16 +2959,16 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2982,14 +2979,14 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3000,14 +2997,14 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3018,14 +3015,14 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3036,14 +3033,14 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3054,14 +3051,14 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
